--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -619,7 +619,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -808,8 +808,8 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">

--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>TCID</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>https://www.zoho.com/</t>
+  </si>
+  <si>
+    <t>verifyTitle</t>
   </si>
 </sst>
 </file>
@@ -616,7 +625,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -626,20 +635,21 @@
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -647,68 +657,73 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
         <v>44</v>
       </c>
@@ -718,16 +733,19 @@
       <c r="F5" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -735,48 +753,50 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
@@ -784,12 +804,16 @@
         <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -797,10 +821,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,21 +879,19 @@
         <v>35</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
@@ -877,128 +899,134 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
@@ -1010,6 +1038,15 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -824,7 +824,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>TCID</t>
   </si>
@@ -138,18 +138,6 @@
     <t>loginlink</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nextbutton</t>
-  </si>
-  <si>
-    <t>userpassword</t>
-  </si>
-  <si>
-    <t>signinbutton</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -160,6 +148,21 @@
   </si>
   <si>
     <t>verifyTitle</t>
+  </si>
+  <si>
+    <t>loginlink_xpath</t>
+  </si>
+  <si>
+    <t>username_id</t>
+  </si>
+  <si>
+    <t>nextbutton_xpath</t>
+  </si>
+  <si>
+    <t>userpassword_name</t>
+  </si>
+  <si>
+    <t>signinbutton_xpath</t>
   </si>
 </sst>
 </file>
@@ -646,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -657,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -669,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -680,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>13</v>
@@ -692,7 +695,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -713,28 +716,28 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -742,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -753,7 +756,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -762,10 +765,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -783,31 +786,31 @@
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,7 +835,7 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -880,7 +883,7 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -889,7 +892,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -905,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -920,7 +923,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -937,7 +940,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -952,7 +955,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -969,7 +972,7 @@
         <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>TCID</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>signinbutton_xpath</t>
+  </si>
+  <si>
+    <t>homepagetitle</t>
+  </si>
+  <si>
+    <t>validateElementPresence</t>
   </si>
 </sst>
 </file>
@@ -570,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -631,7 +637,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -705,7 +711,9 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
@@ -817,6 +825,7 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -824,17 +833,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
   </cols>
@@ -894,18 +903,18 @@
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>44</v>
@@ -917,128 +926,134 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
@@ -1050,6 +1065,15 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CRM/target/test-classes/suitea.xlsx
+++ b/CRM/target/test-classes/suitea.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="12375" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,7 +836,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
